--- a/2_output/us_uk.xlsx
+++ b/2_output/us_uk.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uckert\R_Projects\Terminology\2_output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08370BA0-1AF4-493B-AAC9-9CC6C6787FD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7D86C-B77F-4850-B2DF-072B13419008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10648,12 +10643,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2BC0273-10F5-47F0-B451-A3F3C1123863}" name="Table1" displayName="Table1" ref="A1:C1747" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2BC0273-10F5-47F0-B451-A3F3C1123863}" name="Table1" displayName="Table1" ref="A1:C1747" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C1747" xr:uid="{E194B0FA-CD3F-42D1-A194-4F8110082C3F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C3333775-2B52-42F7-BA78-FCF3012AC46D}" name="uk" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2BF536D0-E45D-4759-B045-87F1ECBED6DE}" name="us" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7C6B3A94-506C-4C71-84A2-C36FFD1A65D8}" name="origin" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C3333775-2B52-42F7-BA78-FCF3012AC46D}" name="uk" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2BF536D0-E45D-4759-B045-87F1ECBED6DE}" name="us" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7C6B3A94-506C-4C71-84A2-C36FFD1A65D8}" name="origin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
